--- a/biology/Botanique/Alisma/Alisma.xlsx
+++ b/biology/Botanique/Alisma/Alisma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alisma (du grec alisma, « plantain d'eau »[1]) est un genre de plantes herbacées monocotylédones de la famille des Alismataceae. 
-Selon l'ethnobotaniste François Couplan, le rhizome d'au moins une espèce (Alisma plantago-aquatica) a autrefois été consommé par l'homme, en dépit de son âcreté (qui peut être diminuée par le séchage)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alisma (du grec alisma, « plantain d'eau ») est un genre de plantes herbacées monocotylédones de la famille des Alismataceae. 
+Selon l'ethnobotaniste François Couplan, le rhizome d'au moins une espèce (Alisma plantago-aquatica) a autrefois été consommé par l'homme, en dépit de son âcreté (qui peut être diminuée par le séchage).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (18 mai 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (18 mai 2016) :
 Alisma bjoerkqvistii Tzvelev
 Alisma canaliculatum A.Braun &amp; C.D.Bouché
 Alisma gramineum Lej.
@@ -526,7 +540,7 @@
 Alisma subcordatum Raf.
 Alisma triviale Pursh
 Alisma wahlenbergii (Holmb.) Juz.
-Selon ITIS      (18 mai 2016)[4] :
+Selon ITIS      (18 mai 2016) :
 Alisma gramineum Lej.
 Alisma lanceolatum With.
 Alisma plantago-aquatica L.
@@ -560,9 +574,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 mai 2016)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 mai 2016) :
 Alisma × bjoerkqvistii Tzvelev (1979)
 Alisma canaliculatum A.Braun &amp; C.D.Bouché, Index Seminum (B (1867)
 Alisma gramineum Lej. (1811)
@@ -577,7 +593,7 @@
 Alisma subcordatum Raf., Med. Repos., ser. 2 (1808)
 Alisma triviale Pursh (1813)
 Alisma wahlenbergii (Holmb.) Juz. (1933)
-Selon NCBI  (18 mai 2016)[6] :
+Selon NCBI  (18 mai 2016) :
 Alisma canaliculatum
 Alisma gramineum
 Alisma juzepczukii
@@ -589,7 +605,7 @@
 Alisma subcordatum
 Alisma triviale
 Alisma wahlenbergii
-Selon The Plant List            (18 mai 2016)[7] :
+Selon The Plant List            (18 mai 2016) :
 Alisma bjoerkqvistii Tzvelev
 Alisma canaliculatum A.Braun &amp; C.D.Bouché
 Alisma gramineum Lej.
@@ -601,7 +617,7 @@
 Alisma subcordatum Raf.
 Alisma triviale Pursh
 Alisma wahlenbergii (Holmb.) Juz.
-Selon Tropicos                                           (18 mai 2016)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 mai 2016) (Attention liste brute contenant possiblement des synonymes) :
 Alisma acanthocarpum F. Muell.
 Alisma alpestre Coss.
 Alisma andrieuxii Hook. &amp; Arn.
@@ -695,7 +711,7 @@
 Alisma × juzepczukii Tzvelev
 Alisma × rhicnocarpum Schotsman
 Alisma × tangerina Pau
-Selon World Register of Marine Species                               (18 mai 2016)[9] :
+Selon World Register of Marine Species                               (18 mai 2016) :
 Alisma wahlenbergii (Holmb.) Juz.</t>
         </is>
       </c>
